--- a/models/calculation engines/cbix2/outputs/capesize/workings_for_viu_adjustmnet_of_specific_index/specific_index_ViU_calculation_alumina_production_cost_calcs_excluding_common_elements.xlsx
+++ b/models/calculation engines/cbix2/outputs/capesize/workings_for_viu_adjustmnet_of_specific_index/specific_index_ViU_calculation_alumina_production_cost_calcs_excluding_common_elements.xlsx
@@ -501,10 +501,10 @@
         <v>0.54</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4293</v>
+        <v>0.4293000000000001</v>
       </c>
       <c r="D2" t="n">
         <v>2.531927607125857</v>
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1717240907847963</v>
+        <v>0.1717240907847962</v>
       </c>
       <c r="G2" t="n">
-        <v>41.70442204773624</v>
+        <v>41.70442204773622</v>
       </c>
       <c r="H2" t="n">
         <v>56.57898214285714</v>
@@ -531,7 +531,7 @@
         <v>8.244221562474227</v>
       </c>
       <c r="L2" t="n">
-        <v>114.0704828959248</v>
+        <v>114.0704828959247</v>
       </c>
     </row>
     <row r="3">
@@ -881,10 +881,10 @@
         <v>0.54</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4293</v>
+        <v>0.4293000000000001</v>
       </c>
       <c r="D12" t="n">
         <v>2.531927607125857</v>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1717240907847963</v>
+        <v>0.1717240907847962</v>
       </c>
       <c r="G12" t="n">
-        <v>41.70442204773624</v>
+        <v>41.70442204773622</v>
       </c>
       <c r="H12" t="n">
         <v>56.57898214285714</v>
@@ -911,7 +911,7 @@
         <v>8.244221562474227</v>
       </c>
       <c r="L12" t="n">
-        <v>114.0704828959248</v>
+        <v>114.0704828959247</v>
       </c>
     </row>
     <row r="13">
@@ -919,10 +919,10 @@
         <v>0.54</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4293</v>
+        <v>0.4293000000000001</v>
       </c>
       <c r="D13" t="n">
         <v>2.531927607125857</v>
@@ -931,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1717240907847963</v>
+        <v>0.1717240907847962</v>
       </c>
       <c r="G13" t="n">
-        <v>41.70442204773624</v>
+        <v>41.70442204773622</v>
       </c>
       <c r="H13" t="n">
         <v>56.57898214285714</v>
@@ -949,7 +949,7 @@
         <v>8.244221562474227</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0704828959248</v>
+        <v>114.0704828959247</v>
       </c>
     </row>
     <row r="14">
